--- a/data/trans_orig/RUIDO_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5817</v>
+        <v>5932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30287</v>
+        <v>31290</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06253175974319196</v>
+        <v>0.06253175974319194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02436127619748095</v>
+        <v>0.02484498679850405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1268474090334542</v>
+        <v>0.1310475370872833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>16345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10721</v>
+        <v>10325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24417</v>
+        <v>24116</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05888538218473718</v>
+        <v>0.0588853821847372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03862308800592922</v>
+        <v>0.03719797165752447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08796730077486956</v>
+        <v>0.08688305142308865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>31275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20424</v>
+        <v>20667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47701</v>
+        <v>50625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06057157119530604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0395549604147706</v>
+        <v>0.04002543103237744</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09238383333910988</v>
+        <v>0.09804626495776993</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>122986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105726</v>
+        <v>105097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139013</v>
+        <v>139381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5150821658957501</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4427922404409991</v>
+        <v>0.4401608723156297</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5822031972617338</v>
+        <v>0.5837454019207962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -833,19 +833,19 @@
         <v>136991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119935</v>
+        <v>122700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152669</v>
+        <v>152342</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4935389130743492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4320909460518726</v>
+        <v>0.4420525746304311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.550023212390399</v>
+        <v>0.5488436881357115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -854,19 +854,19 @@
         <v>259977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237697</v>
+        <v>236913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284845</v>
+        <v>284707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5035011277866256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4603510286864733</v>
+        <v>0.4588326135622215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5516636013249577</v>
+        <v>0.5513952342323853</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>42559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31458</v>
+        <v>31877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56602</v>
+        <v>55853</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1782416122311987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1317483551153568</v>
+        <v>0.1335029970426008</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2370566621731376</v>
+        <v>0.2339188821073805</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -904,19 +904,19 @@
         <v>47706</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37123</v>
+        <v>37762</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58861</v>
+        <v>60311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1718716950935328</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1337417806047183</v>
+        <v>0.1360467045921307</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2120604585398517</v>
+        <v>0.2172818547304892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>105</v>
@@ -925,19 +925,19 @@
         <v>90265</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75249</v>
+        <v>73873</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108342</v>
+        <v>108825</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1748173265054149</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1457354782878074</v>
+        <v>0.1430705824126587</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.209827802867289</v>
+        <v>0.2107630491066137</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>36308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25464</v>
+        <v>26060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50349</v>
+        <v>50422</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1520607577034702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1066475547588728</v>
+        <v>0.1091418736542519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.210867325629387</v>
+        <v>0.2111731354281423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -975,19 +975,19 @@
         <v>40392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31103</v>
+        <v>30254</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52032</v>
+        <v>50998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1455204570112651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1120555663685985</v>
+        <v>0.1089959620614445</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1874554230669692</v>
+        <v>0.1837315096585849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -996,19 +996,19 @@
         <v>76700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61389</v>
+        <v>61835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94183</v>
+        <v>95055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1485448786396402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1188927270762139</v>
+        <v>0.1197570262227484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1824045366877792</v>
+        <v>0.1840943724252034</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>21987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13848</v>
+        <v>12935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34355</v>
+        <v>33703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09208370442638923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05799546639093454</v>
+        <v>0.05417371557458505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1438848078493506</v>
+        <v>0.141152227614602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1046,19 +1046,19 @@
         <v>36135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27411</v>
+        <v>26609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49155</v>
+        <v>49019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1301835526361157</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09875466913193806</v>
+        <v>0.09586484091527195</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1770894964850151</v>
+        <v>0.1765995506657539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -1067,19 +1067,19 @@
         <v>58122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45554</v>
+        <v>45479</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76463</v>
+        <v>75769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1125650958730133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08822453176415115</v>
+        <v>0.08807974783924724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1480865302547279</v>
+        <v>0.1467425658547252</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>39106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26800</v>
+        <v>26412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56437</v>
+        <v>55673</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09918257756333911</v>
+        <v>0.09918257756333909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06797265004934232</v>
+        <v>0.06698919027784707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1431398020802265</v>
+        <v>0.1412014791408988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1192,19 +1192,19 @@
         <v>44311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33506</v>
+        <v>33798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56431</v>
+        <v>56681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09301442008541794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07033199120286968</v>
+        <v>0.07094547549867353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1184554410216989</v>
+        <v>0.1189806262965718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1213,19 +1213,19 @@
         <v>83417</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66638</v>
+        <v>66584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104154</v>
+        <v>103293</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09580763755659204</v>
+        <v>0.09580763755659201</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07653703316183808</v>
+        <v>0.07647432617478045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1196251942937928</v>
+        <v>0.1186362013380195</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>104771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87257</v>
+        <v>86780</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125525</v>
+        <v>124147</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2657289252680953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2213071967892635</v>
+        <v>0.2200996742366247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.318367873636034</v>
+        <v>0.3148718101348363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -1263,19 +1263,19 @@
         <v>187883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169549</v>
+        <v>170736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>207611</v>
+        <v>206861</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3943892345298481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3559038155160648</v>
+        <v>0.3583951117061258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4357988525903173</v>
+        <v>0.4342261210043517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>393</v>
@@ -1284,19 +1284,19 @@
         <v>292655</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>267697</v>
+        <v>267928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>320605</v>
+        <v>320960</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.336126094367981</v>
+        <v>0.3361260943679809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3074609831246682</v>
+        <v>0.3077264413269666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3682284208750942</v>
+        <v>0.368636270506538</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>136079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118009</v>
+        <v>116092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157039</v>
+        <v>156962</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3451353710742031</v>
+        <v>0.345135371074203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2993032883084127</v>
+        <v>0.2944424089313157</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3982945976933391</v>
+        <v>0.3981001178908671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>156</v>
@@ -1334,19 +1334,19 @@
         <v>106409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93045</v>
+        <v>89535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123864</v>
+        <v>123519</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2233639974897627</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1953119767714409</v>
+        <v>0.1879452641630058</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2600057271212697</v>
+        <v>0.259281685237699</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>295</v>
@@ -1355,19 +1355,19 @@
         <v>242488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>219045</v>
+        <v>218253</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>267516</v>
+        <v>268799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2785075195873147</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2515828829255848</v>
+        <v>0.2506731289448278</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3072531186178676</v>
+        <v>0.3087269665632116</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>67424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53016</v>
+        <v>52392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84555</v>
+        <v>85132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1710057013997843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.134464699029934</v>
+        <v>0.1328816712764715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2144552128409846</v>
+        <v>0.2159185565799744</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -1405,19 +1405,19 @@
         <v>70549</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57516</v>
+        <v>58741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86041</v>
+        <v>85457</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1480908177489494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1207317499141357</v>
+        <v>0.1233033799817458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1806101691120788</v>
+        <v>0.1793842109736983</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -1426,19 +1426,19 @@
         <v>137973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119128</v>
+        <v>116185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158575</v>
+        <v>160050</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1584677015416449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1368234212344182</v>
+        <v>0.1334439069519876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1821298967865947</v>
+        <v>0.1838246675891971</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>46898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35279</v>
+        <v>35739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62002</v>
+        <v>62606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1189474246945783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08947804780754653</v>
+        <v>0.09064302005772351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1572551079958773</v>
+        <v>0.1587862661356539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -1476,19 +1476,19 @@
         <v>67239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54293</v>
+        <v>55490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81465</v>
+        <v>81701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1411415301460219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1139662600645841</v>
+        <v>0.1164799197940456</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1710048617290586</v>
+        <v>0.1714992040758437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>150</v>
@@ -1497,19 +1497,19 @@
         <v>114137</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98037</v>
+        <v>97361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135753</v>
+        <v>132598</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1310910469464675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.112599079934577</v>
+        <v>0.1118229190383849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1559184191674135</v>
+        <v>0.1522941539762778</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>26600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16131</v>
+        <v>16849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40672</v>
+        <v>42154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05969733360538575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03620274751922745</v>
+        <v>0.03781364504389369</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09127830092944107</v>
+        <v>0.0946048220832304</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1622,19 +1622,19 @@
         <v>33833</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25040</v>
+        <v>24605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46073</v>
+        <v>45494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07644980991541331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05658173352394507</v>
+        <v>0.05559915169611834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1041080970825278</v>
+        <v>0.1027994154865966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1643,19 +1643,19 @@
         <v>60433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46872</v>
+        <v>46189</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79031</v>
+        <v>78639</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06804500718787293</v>
+        <v>0.06804500718787294</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05277636145977862</v>
+        <v>0.05200729978307636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08898628177440575</v>
+        <v>0.08854482279596118</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>75876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61160</v>
+        <v>60525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94255</v>
+        <v>92418</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1702876897934696</v>
+        <v>0.1702876897934695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1372603805450645</v>
+        <v>0.1358351197418932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2115340543593973</v>
+        <v>0.2074114925996733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -1693,19 +1693,19 @@
         <v>85014</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71742</v>
+        <v>72087</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>100096</v>
+        <v>100773</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1920996545625351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1621107362401291</v>
+        <v>0.1628904858337132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2261798417130265</v>
+        <v>0.2277105203850567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>215</v>
@@ -1714,19 +1714,19 @@
         <v>160890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139830</v>
+        <v>139143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>182626</v>
+        <v>182854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1811564806943039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1574437004758748</v>
+        <v>0.1566706957399943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2056308168124405</v>
+        <v>0.2058874284247763</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>221300</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>199666</v>
+        <v>199544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>242645</v>
+        <v>245152</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4966571945795819</v>
+        <v>0.4966571945795818</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4481060939930536</v>
+        <v>0.4478328698222702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5445625277739213</v>
+        <v>0.5501882494005426</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>316</v>
@@ -1764,19 +1764,19 @@
         <v>206009</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>189514</v>
+        <v>188559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>224335</v>
+        <v>224756</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4655054254282827</v>
+        <v>0.4655054254282828</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4282330741744432</v>
+        <v>0.426075582898413</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5069153708484232</v>
+        <v>0.5078676889877358</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>538</v>
@@ -1785,19 +1785,19 @@
         <v>427308</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>399845</v>
+        <v>397879</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>452696</v>
+        <v>458560</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.481134426746364</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4502112346032634</v>
+        <v>0.4479976411844112</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5097195517450999</v>
+        <v>0.5163225982187276</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>70090</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55602</v>
+        <v>56357</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86364</v>
+        <v>88824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1573006933341722</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1247870013210794</v>
+        <v>0.1264799128397965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1938245069166147</v>
+        <v>0.19934498216728</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1835,19 +1835,19 @@
         <v>58355</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47019</v>
+        <v>47257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71204</v>
+        <v>70075</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1318613674596115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1062450252312285</v>
+        <v>0.1067833131213736</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1608962834716285</v>
+        <v>0.158343363305879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -1856,19 +1856,19 @@
         <v>128445</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109909</v>
+        <v>110012</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148801</v>
+        <v>148087</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1446244068778086</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1237542316438927</v>
+        <v>0.1238694384177567</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1675450760154024</v>
+        <v>0.1667406952395267</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>51712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39321</v>
+        <v>39985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65917</v>
+        <v>66251</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1160570886873907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08824810900078119</v>
+        <v>0.08973801072294992</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1479360793878033</v>
+        <v>0.1486852220299092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -1906,19 +1906,19 @@
         <v>59339</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47835</v>
+        <v>47476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74141</v>
+        <v>73115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1340837426341573</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1080893410664926</v>
+        <v>0.1072782601225133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1675318809145328</v>
+        <v>0.1652144003293808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -1927,19 +1927,19 @@
         <v>111051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95800</v>
+        <v>94712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>132270</v>
+        <v>131934</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1250396784936505</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1078679734764785</v>
+        <v>0.1066420494604287</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1489318047639277</v>
+        <v>0.148552768034272</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>39697</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28506</v>
+        <v>25813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57036</v>
+        <v>55545</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1578962122373466</v>
+        <v>0.1578962122373465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1133808608513845</v>
+        <v>0.1026688940789975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2268585104269141</v>
+        <v>0.2209308115616626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2052,19 +2052,19 @@
         <v>36466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26394</v>
+        <v>27022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51542</v>
+        <v>50164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1576364137802539</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1140961809415901</v>
+        <v>0.1168104302378585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2228061100682289</v>
+        <v>0.216848809091109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -2073,19 +2073,19 @@
         <v>76163</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58338</v>
+        <v>57967</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96210</v>
+        <v>98186</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1577717175941649</v>
+        <v>0.1577717175941648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1208456295978392</v>
+        <v>0.1200772764787385</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1992986377057399</v>
+        <v>0.2033913088965771</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>17976</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10989</v>
+        <v>11675</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27271</v>
+        <v>28702</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07149940648628132</v>
+        <v>0.07149940648628131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04370920792562329</v>
+        <v>0.04643536226427492</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1084714231749429</v>
+        <v>0.1141617481037754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>60</v>
@@ -2123,19 +2123,19 @@
         <v>31880</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24615</v>
+        <v>24427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40754</v>
+        <v>41164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1378131735207974</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1064044659842813</v>
+        <v>0.1055930715353339</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.176171322776881</v>
+        <v>0.1779469043401191</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>81</v>
@@ -2144,19 +2144,19 @@
         <v>49856</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39442</v>
+        <v>39710</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62739</v>
+        <v>62393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1032767652026711</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0817037020229064</v>
+        <v>0.08225850153333172</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1299627845993091</v>
+        <v>0.1292461217073926</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>114180</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97342</v>
+        <v>95833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132166</v>
+        <v>130818</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4541477882273471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3871755431606284</v>
+        <v>0.3811744944002606</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5256895492393007</v>
+        <v>0.5203271546975162</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -2194,19 +2194,19 @@
         <v>100596</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>87405</v>
+        <v>86447</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>112571</v>
+        <v>114130</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4348574007803246</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3778368574651664</v>
+        <v>0.3736971653830122</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4866259819285014</v>
+        <v>0.4933632795411642</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>286</v>
@@ -2215,19 +2215,19 @@
         <v>214775</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>193029</v>
+        <v>194589</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>234430</v>
+        <v>236537</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4449038922899753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3998586724640824</v>
+        <v>0.4030898793958395</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4856189595159224</v>
+        <v>0.4899853720906793</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>29523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20642</v>
+        <v>20693</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43707</v>
+        <v>42931</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1174282113585039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08210514156829028</v>
+        <v>0.08230767380844764</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1738432263202558</v>
+        <v>0.1707585336044622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2265,19 +2265,19 @@
         <v>20073</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14096</v>
+        <v>13850</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28462</v>
+        <v>27473</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08677240873421634</v>
+        <v>0.08677240873421632</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06093328489974617</v>
+        <v>0.0598725808396529</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1230377479543065</v>
+        <v>0.1187627018102669</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2286,19 +2286,19 @@
         <v>49596</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38029</v>
+        <v>37340</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64598</v>
+        <v>65696</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1027380424796377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07877764091429419</v>
+        <v>0.07734852359532325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1338143444040193</v>
+        <v>0.1360879132144952</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>50039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37784</v>
+        <v>36676</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66749</v>
+        <v>65004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1990283816905212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1502842125157495</v>
+        <v>0.1458771037133787</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2654952789464696</v>
+        <v>0.2585524735824717</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>68</v>
@@ -2336,19 +2336,19 @@
         <v>42315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33107</v>
+        <v>33242</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53148</v>
+        <v>52885</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1829206031844077</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1431161721666783</v>
+        <v>0.14370125845266</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2297517406633062</v>
+        <v>0.2286128301820708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>123</v>
@@ -2357,19 +2357,19 @@
         <v>92354</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>76811</v>
+        <v>77188</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110004</v>
+        <v>110781</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1913095824335509</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1591137317934706</v>
+        <v>0.1598938275382156</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2278727502859325</v>
+        <v>0.2294813410680931</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>120333</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>95592</v>
+        <v>92744</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>148927</v>
+        <v>149441</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09047351367894578</v>
+        <v>0.09047351367894577</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07187152559112907</v>
+        <v>0.06973044432924647</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1119717880145452</v>
+        <v>0.1123585450652152</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>179</v>
@@ -2482,19 +2482,19 @@
         <v>130955</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>111863</v>
+        <v>112851</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>151646</v>
+        <v>153758</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09171535694684747</v>
+        <v>0.09171535694684746</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07834396540655469</v>
+        <v>0.07903598170396538</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1062064790878223</v>
+        <v>0.1076860618550882</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>270</v>
@@ -2503,19 +2503,19 @@
         <v>251288</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>221093</v>
+        <v>220398</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>287857</v>
+        <v>288692</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09111645418793579</v>
+        <v>0.09111645418793578</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08016784174079687</v>
+        <v>0.07991558631382159</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1043763652914573</v>
+        <v>0.1046789505149218</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>321610</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>289028</v>
+        <v>289835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>352888</v>
+        <v>359587</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2418044247169492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2173074139120367</v>
+        <v>0.2179143400457172</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2653214878028559</v>
+        <v>0.270357787952921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>671</v>
@@ -2553,19 +2553,19 @@
         <v>441769</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>408207</v>
+        <v>409672</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>472895</v>
+        <v>473763</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3093966018548235</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2858911489269724</v>
+        <v>0.286917329304665</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3311960078379215</v>
+        <v>0.3318039927799056</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>992</v>
@@ -2574,19 +2574,19 @@
         <v>763378</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>717923</v>
+        <v>716417</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>809487</v>
+        <v>808193</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2767989766833959</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2603168928863686</v>
+        <v>0.2597709817498597</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2935178199990071</v>
+        <v>0.2930486572487845</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>514117</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>476454</v>
+        <v>475323</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>551791</v>
+        <v>552105</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3865422769775132</v>
+        <v>0.3865422769775133</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3582253111648631</v>
+        <v>0.3573748159706344</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4148682169720588</v>
+        <v>0.4151037401414414</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>701</v>
@@ -2624,19 +2624,19 @@
         <v>460719</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>429440</v>
+        <v>431395</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>493260</v>
+        <v>495817</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3226689421148407</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3007622132179401</v>
+        <v>0.3021310773480837</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3454591908558368</v>
+        <v>0.3472498898048111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1224</v>
@@ -2645,19 +2645,19 @@
         <v>974836</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>924778</v>
+        <v>928523</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1021602</v>
+        <v>1027662</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3534730841985523</v>
+        <v>0.3534730841985522</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3353219975069732</v>
+        <v>0.336680079765142</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3704301211473862</v>
+        <v>0.3726276765469852</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>203344</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>178757</v>
+        <v>177241</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>235284</v>
+        <v>234279</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.152885727242334</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1344000850154982</v>
+        <v>0.1332601244306556</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1768998604989129</v>
+        <v>0.1761440164707147</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>261</v>
@@ -2695,19 +2695,19 @@
         <v>189369</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>165801</v>
+        <v>167359</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>212663</v>
+        <v>210590</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1326265106786063</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1161203349906592</v>
+        <v>0.1172115287013567</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1489405041558936</v>
+        <v>0.147488912291921</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>462</v>
@@ -2716,19 +2716,19 @@
         <v>392714</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>359243</v>
+        <v>357700</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>431049</v>
+        <v>427480</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1423969068364943</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1302607288967253</v>
+        <v>0.1297011676272541</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1562971002067735</v>
+        <v>0.1550031767371931</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>170636</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>147017</v>
+        <v>147306</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>197998</v>
+        <v>198883</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1282940573842579</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1105356059549366</v>
+        <v>0.1107527691610748</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1488662283769566</v>
+        <v>0.1495312876326426</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>297</v>
@@ -2766,19 +2766,19 @@
         <v>205027</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>182121</v>
+        <v>183367</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>231357</v>
+        <v>229631</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1435925884048819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1275503815621477</v>
+        <v>0.1284230417571084</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1620328773814655</v>
+        <v>0.1608238106406944</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>481</v>
@@ -2787,19 +2787,19 @@
         <v>375663</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>343117</v>
+        <v>341089</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>413215</v>
+        <v>411749</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1362145780936218</v>
+        <v>0.1362145780936217</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1244132842860155</v>
+        <v>0.1236781420167913</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1498306263179155</v>
+        <v>0.1492992691150839</v>
       </c>
     </row>
     <row r="33">
